--- a/biology/Botanique/Koeberliniaceae/Koeberliniaceae.xlsx
+++ b/biology/Botanique/Koeberliniaceae/Koeberliniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Koeberliniacées est une petite famille de plantes dicotylédones qui ne comprend qu'une espèce Koeberlinia spinosa
 C'est un arbuste épineux, à feuilles très réduites et photosynthèse assurée dans les tiges, des régions arides du sud des États-Unis et du Mexique. 
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Koeberlinia, nommé en l’honneur du pasteur et botaniste amateur allemand Christoph Ludwig Köberlin (de) (1794–1862).
-Il fut en lien avec les botanistes allemands C. Von Martius et J. Zuccarini avec qui il étudia la flore des  Alpes et de la Souabe (Allemagne)[1].
+Il fut en lien avec les botanistes allemands C. Von Martius et J. Zuccarini avec qui il étudia la flore des  Alpes et de la Souabe (Allemagne).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, anciennement, faisait partie de la famille des Capparacées.
 </t>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (21 juin 2010)[2] et DELTA Angio           (21 juin 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (21 juin 2010) et DELTA Angio           (21 juin 2010) :
 genre Koeberlinia</t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (21 juin 2010)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (21 juin 2010) :
 genre Koeberlinia
 Koeberlinia spinosa</t>
         </is>
